--- a/IoTChainReaction/SmartChainLib/ChainReactionList.xlsx
+++ b/IoTChainReaction/SmartChainLib/ChainReactionList.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
+    <sheet name="ArduinoCommands" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>sensor</t>
   </si>
@@ -93,6 +94,66 @@
   </si>
   <si>
     <t>StepMotor</t>
+  </si>
+  <si>
+    <t>note1</t>
+  </si>
+  <si>
+    <t>note2</t>
+  </si>
+  <si>
+    <t>note3</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>LED ON</t>
+  </si>
+  <si>
+    <t>LED OFF</t>
+  </si>
+  <si>
+    <t>Prefix</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>SERVO Degree 0</t>
+  </si>
+  <si>
+    <t>SERVO Degree 180</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>STEPMOTOR ON</t>
+  </si>
+  <si>
+    <t>STEPMOTOR OFF</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>RGB LED Red</t>
+  </si>
+  <si>
+    <t>RGB LED Green</t>
+  </si>
+  <si>
+    <t>RGB LED Blue</t>
+  </si>
+  <si>
+    <t>Command</t>
   </si>
 </sst>
 </file>
@@ -135,7 +196,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -146,6 +211,39 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="טבלה1" displayName="טבלה1" ref="A1:I9" totalsRowShown="0">
+  <autoFilter ref="A1:I9"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="name"/>
+    <tableColumn id="2" name="type"/>
+    <tableColumn id="3" name="sensor"/>
+    <tableColumn id="4" name="actuator"/>
+    <tableColumn id="5" name="subsystem"/>
+    <tableColumn id="6" name="order"/>
+    <tableColumn id="7" name="note1"/>
+    <tableColumn id="8" name="note2"/>
+    <tableColumn id="9" name="note3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="טבלה2" displayName="טבלה2" ref="A1:D10" totalsRowShown="0">
+  <autoFilter ref="A1:D10"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Prefix"/>
+    <tableColumn id="2" name="State"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Command" dataDxfId="0">
+      <calculatedColumnFormula>טבלה2[[#This Row],[Prefix]]&amp;טבלה2[[#This Row],[State]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,21 +509,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -444,8 +543,17 @@
       <c r="F1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -465,7 +573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>20</v>
       </c>
@@ -482,7 +590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -505,7 +613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -522,7 +630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -542,7 +650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -568,7 +676,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -585,7 +693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -603,6 +711,189 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2:D9">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="str">
+        <f>טבלה2[[#This Row],[Prefix]]&amp;טבלה2[[#This Row],[State]]</f>
+        <v>AL0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="str">
+        <f>טבלה2[[#This Row],[Prefix]]&amp;טבלה2[[#This Row],[State]]</f>
+        <v>AL1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="str">
+        <f>טבלה2[[#This Row],[Prefix]]&amp;טבלה2[[#This Row],[State]]</f>
+        <v>AS0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="str">
+        <f>טבלה2[[#This Row],[Prefix]]&amp;טבלה2[[#This Row],[State]]</f>
+        <v>AS1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="str">
+        <f>טבלה2[[#This Row],[Prefix]]&amp;טבלה2[[#This Row],[State]]</f>
+        <v>AM0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="str">
+        <f>טבלה2[[#This Row],[Prefix]]&amp;טבלה2[[#This Row],[State]]</f>
+        <v>AM1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="str">
+        <f>טבלה2[[#This Row],[Prefix]]&amp;טבלה2[[#This Row],[State]]</f>
+        <v>AR0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="str">
+        <f>טבלה2[[#This Row],[Prefix]]&amp;טבלה2[[#This Row],[State]]</f>
+        <v>AR1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="str">
+        <f>טבלה2[[#This Row],[Prefix]]&amp;טבלה2[[#This Row],[State]]</f>
+        <v>AR2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/IoTChainReaction/SmartChainLib/ChainReactionList.xlsx
+++ b/IoTChainReaction/SmartChainLib/ChainReactionList.xlsx
@@ -170,12 +170,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -190,15 +196,151 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -214,35 +356,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="טבלה1" displayName="טבלה1" ref="A1:I9" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="טבלה1" displayName="טבלה1" ref="A1:I9" totalsRowShown="0" headerRowDxfId="16" dataDxfId="6">
   <autoFilter ref="A1:I9"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="name"/>
-    <tableColumn id="2" name="type"/>
-    <tableColumn id="3" name="sensor"/>
-    <tableColumn id="4" name="actuator"/>
-    <tableColumn id="5" name="subsystem"/>
-    <tableColumn id="6" name="order"/>
-    <tableColumn id="7" name="note1"/>
-    <tableColumn id="8" name="note2"/>
-    <tableColumn id="9" name="note3"/>
+    <tableColumn id="1" name="name" dataDxfId="15"/>
+    <tableColumn id="2" name="type" dataDxfId="14"/>
+    <tableColumn id="3" name="sensor" dataDxfId="13"/>
+    <tableColumn id="4" name="actuator" dataDxfId="12"/>
+    <tableColumn id="5" name="subsystem" dataDxfId="11"/>
+    <tableColumn id="6" name="order" dataDxfId="10"/>
+    <tableColumn id="7" name="note1" dataDxfId="9"/>
+    <tableColumn id="8" name="note2" dataDxfId="8"/>
+    <tableColumn id="9" name="note3" dataDxfId="7"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="טבלה2" displayName="טבלה2" ref="A1:D10" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="טבלה2" displayName="טבלה2" ref="A1:D10" totalsRowShown="0" headerRowDxfId="5" dataDxfId="0">
   <autoFilter ref="A1:D10"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Prefix"/>
-    <tableColumn id="2" name="State"/>
-    <tableColumn id="3" name="Description"/>
-    <tableColumn id="4" name="Command" dataDxfId="0">
+    <tableColumn id="1" name="Prefix" dataDxfId="4"/>
+    <tableColumn id="2" name="State" dataDxfId="3"/>
+    <tableColumn id="3" name="Description" dataDxfId="2"/>
+    <tableColumn id="4" name="Command" dataDxfId="1">
       <calculatedColumnFormula>טבלה2[[#This Row],[Prefix]]&amp;טבלה2[[#This Row],[State]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -511,204 +653,232 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="10" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>2</v>
       </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>4</v>
       </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>5</v>
       </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>6</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>7</v>
       </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>8</v>
       </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D9">
@@ -732,160 +902,162 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" s="2" t="str">
         <f>טבלה2[[#This Row],[Prefix]]&amp;טבלה2[[#This Row],[State]]</f>
         <v>AL0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D3" s="2" t="str">
         <f>טבלה2[[#This Row],[Prefix]]&amp;טבלה2[[#This Row],[State]]</f>
         <v>AL1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D4" s="2" t="str">
         <f>טבלה2[[#This Row],[Prefix]]&amp;טבלה2[[#This Row],[State]]</f>
         <v>AS0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D5" s="2" t="str">
         <f>טבלה2[[#This Row],[Prefix]]&amp;טבלה2[[#This Row],[State]]</f>
         <v>AS1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D6" s="2" t="str">
         <f>טבלה2[[#This Row],[Prefix]]&amp;טבלה2[[#This Row],[State]]</f>
         <v>AM0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D7" s="2" t="str">
         <f>טבלה2[[#This Row],[Prefix]]&amp;טבלה2[[#This Row],[State]]</f>
         <v>AM1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D8" s="2" t="str">
         <f>טבלה2[[#This Row],[Prefix]]&amp;טבלה2[[#This Row],[State]]</f>
         <v>AR0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D9" s="2" t="str">
         <f>טבלה2[[#This Row],[Prefix]]&amp;טבלה2[[#This Row],[State]]</f>
         <v>AR1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D10" s="2" t="str">
         <f>טבלה2[[#This Row],[Prefix]]&amp;טבלה2[[#This Row],[State]]</f>
         <v>AR2</v>
       </c>

--- a/IoTChainReaction/SmartChainLib/ChainReactionList.xlsx
+++ b/IoTChainReaction/SmartChainLib/ChainReactionList.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>sensor</t>
   </si>
@@ -154,6 +154,21 @@
   </si>
   <si>
     <t>Command</t>
+  </si>
+  <si>
+    <t>RGB LED OFF</t>
+  </si>
+  <si>
+    <t>RGB LED Azure</t>
+  </si>
+  <si>
+    <t>RGB LED Pink</t>
+  </si>
+  <si>
+    <t>RGB LED Yellow</t>
+  </si>
+  <si>
+    <t>RGB LED White</t>
   </si>
 </sst>
 </file>
@@ -196,25 +211,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -356,31 +377,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="טבלה1" displayName="טבלה1" ref="A1:I9" totalsRowShown="0" headerRowDxfId="16" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="טבלה1" displayName="טבלה1" ref="A1:I9" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:I9"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="name" dataDxfId="15"/>
-    <tableColumn id="2" name="type" dataDxfId="14"/>
-    <tableColumn id="3" name="sensor" dataDxfId="13"/>
-    <tableColumn id="4" name="actuator" dataDxfId="12"/>
-    <tableColumn id="5" name="subsystem" dataDxfId="11"/>
-    <tableColumn id="6" name="order" dataDxfId="10"/>
-    <tableColumn id="7" name="note1" dataDxfId="9"/>
-    <tableColumn id="8" name="note2" dataDxfId="8"/>
-    <tableColumn id="9" name="note3" dataDxfId="7"/>
+    <tableColumn id="1" name="name" dataDxfId="14"/>
+    <tableColumn id="2" name="type" dataDxfId="13"/>
+    <tableColumn id="3" name="sensor" dataDxfId="12"/>
+    <tableColumn id="4" name="actuator" dataDxfId="11"/>
+    <tableColumn id="5" name="subsystem" dataDxfId="10"/>
+    <tableColumn id="6" name="order" dataDxfId="9"/>
+    <tableColumn id="7" name="note1" dataDxfId="8"/>
+    <tableColumn id="8" name="note2" dataDxfId="7"/>
+    <tableColumn id="9" name="note3" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="טבלה2" displayName="טבלה2" ref="A1:D10" totalsRowShown="0" headerRowDxfId="5" dataDxfId="0">
-  <autoFilter ref="A1:D10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="טבלה2" displayName="טבלה2" ref="A1:D17" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D17"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Prefix" dataDxfId="4"/>
-    <tableColumn id="2" name="State" dataDxfId="3"/>
-    <tableColumn id="3" name="Description" dataDxfId="2"/>
-    <tableColumn id="4" name="Command" dataDxfId="1">
+    <tableColumn id="1" name="Prefix" dataDxfId="3"/>
+    <tableColumn id="2" name="State" dataDxfId="2"/>
+    <tableColumn id="3" name="Description" dataDxfId="1"/>
+    <tableColumn id="4" name="Command" dataDxfId="0">
       <calculatedColumnFormula>טבלה2[[#This Row],[Prefix]]&amp;טבלה2[[#This Row],[State]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -899,16 +920,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D15" sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
@@ -928,139 +950,226 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="3" t="str">
         <f>טבלה2[[#This Row],[Prefix]]&amp;טבלה2[[#This Row],[State]]</f>
         <v>AL0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="3" t="str">
         <f>טבלה2[[#This Row],[Prefix]]&amp;טבלה2[[#This Row],[State]]</f>
         <v>AL1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="2" t="str">
+      <c r="D4" s="3" t="str">
         <f>טבלה2[[#This Row],[Prefix]]&amp;טבלה2[[#This Row],[State]]</f>
         <v>AS0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="3" t="str">
         <f>טבלה2[[#This Row],[Prefix]]&amp;טבלה2[[#This Row],[State]]</f>
         <v>AS1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="3" t="str">
         <f>טבלה2[[#This Row],[Prefix]]&amp;טבלה2[[#This Row],[State]]</f>
         <v>AM0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="3" t="str">
         <f>טבלה2[[#This Row],[Prefix]]&amp;טבלה2[[#This Row],[State]]</f>
         <v>AM1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f>טבלה2[[#This Row],[Prefix]]&amp;טבלה2[[#This Row],[State]]</f>
+        <v>AR0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f>טבלה2[[#This Row],[Prefix]]&amp;טבלה2[[#This Row],[State]]</f>
+        <v>AR1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f>טבלה2[[#This Row],[Prefix]]&amp;טבלה2[[#This Row],[State]]</f>
+        <v>AR2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f>טבלה2[[#This Row],[Prefix]]&amp;טבלה2[[#This Row],[State]]</f>
+        <v>AR3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="2" t="str">
-        <f>טבלה2[[#This Row],[Prefix]]&amp;טבלה2[[#This Row],[State]]</f>
-        <v>AR0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="D12" s="3" t="str">
+        <f>טבלה2[[#This Row],[Prefix]]&amp;טבלה2[[#This Row],[State]]</f>
+        <v>AR4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="2" t="str">
-        <f>טבלה2[[#This Row],[Prefix]]&amp;טבלה2[[#This Row],[State]]</f>
-        <v>AR1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="B13" s="3">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f>טבלה2[[#This Row],[Prefix]]&amp;טבלה2[[#This Row],[State]]</f>
+        <v>AR5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="2" t="str">
-        <f>טבלה2[[#This Row],[Prefix]]&amp;טבלה2[[#This Row],[State]]</f>
-        <v>AR2</v>
-      </c>
+      <c r="B14" s="3">
+        <v>6</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f>טבלה2[[#This Row],[Prefix]]&amp;טבלה2[[#This Row],[State]]</f>
+        <v>AR6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="3">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f>טבלה2[[#This Row],[Prefix]]&amp;טבלה2[[#This Row],[State]]</f>
+        <v>AR7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
